--- a/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Habitat-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>1.222930381411759</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>1.619342574323552</v>
+        <v>1.619342574323553</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6300395899428067</v>
+        <v>0.6188060428887734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9432081490360387</v>
+        <v>0.9433556742469024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8485999688568514</v>
+        <v>0.8451485325820381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.253408228042676</v>
+        <v>1.237884161897641</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9060698688937056</v>
+        <v>0.906578866737502</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.502024413887859</v>
+        <v>1.508907308526879</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.380928654289111</v>
+        <v>1.388474281412243</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.718776015419013</v>
+        <v>1.721284293781306</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7880151240792761</v>
+        <v>0.780190242184891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.256627911408092</v>
+        <v>1.251056213288867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.136995127302442</v>
+        <v>1.135109249036016</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.523553923833734</v>
+        <v>1.53136078720034</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7893367088458183</v>
+        <v>0.7884316493803782</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.158855942588442</v>
+        <v>1.165794580403467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.047687216211429</v>
+        <v>1.050681444827013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.55235500857562</v>
+        <v>1.550726742710423</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.086606955657554</v>
+        <v>1.074513548575601</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.7771807746612</v>
+        <v>1.79551111278957</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.635753844909249</v>
+        <v>1.658900325671631</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.956069497312571</v>
+        <v>1.962699438716382</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9119803988472759</v>
+        <v>0.9083725311482698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.430682934980563</v>
+        <v>1.429790943387425</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.307436284481293</v>
+        <v>1.309796156556999</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.724084744268795</v>
+        <v>1.730780376881703</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>1.12617982037016</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>1.38776807316742</v>
+        <v>1.387768073167419</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6660859754168464</v>
+        <v>0.6650724570275</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.88288565255555</v>
+        <v>0.8878202259549466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8405891967560922</v>
+        <v>0.8423880022608699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9873569297261297</v>
+        <v>0.9738255195879381</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.044777897327887</v>
+        <v>1.047129395134784</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.503837483362846</v>
+        <v>1.49971733689622</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.242883282565037</v>
+        <v>1.226348688006483</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.593261157867949</v>
+        <v>1.591780215755547</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8774928380923411</v>
+        <v>0.8743065352690162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.223045567086574</v>
+        <v>1.221163354701615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.069110933903478</v>
+        <v>1.065316526429763</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.316491649933224</v>
+        <v>1.310154761018751</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8214121475415743</v>
+        <v>0.8217760155111666</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.060712170041882</v>
+        <v>1.067838001066896</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9940946925192617</v>
+        <v>1.000127026742598</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.175744770121385</v>
+        <v>1.178786843770616</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.225099259934235</v>
+        <v>1.218538343819615</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.739798348242635</v>
+        <v>1.732400560209306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.441448890771071</v>
+        <v>1.429282994198178</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.808098696356701</v>
+        <v>1.797424158229087</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.000185344996254</v>
+        <v>0.9961354006740256</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.376600262828404</v>
+        <v>1.375265412841757</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.191707816863438</v>
+        <v>1.190358324042115</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.460078287711867</v>
+        <v>1.46385096911735</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5908617049266218</v>
+        <v>0.5892786573953942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8310667397896426</v>
+        <v>0.841600011971623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7761242931439691</v>
+        <v>0.780307989818691</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.084213596736872</v>
+        <v>1.091269512543282</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.113182756119615</v>
+        <v>1.096694448041778</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.377752085272461</v>
+        <v>1.378040455824569</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.187323763534752</v>
+        <v>1.178916692785229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.439763972374832</v>
+        <v>1.430494466376765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8748662727793587</v>
+        <v>0.869175322159898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.14275665108143</v>
+        <v>1.141711590702061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.01216033068369</v>
+        <v>1.006359029158759</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.28935681508733</v>
+        <v>1.293902321000836</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7711777359952131</v>
+        <v>0.7628633532514155</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.072735204686412</v>
+        <v>1.086126210955501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9687199066433905</v>
+        <v>0.9714395449527119</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.338891610556105</v>
+        <v>1.333408006638947</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.342863072572337</v>
+        <v>1.339720125027329</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.612122633151922</v>
+        <v>1.611573535947832</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.428563747147104</v>
+        <v>1.417193332929547</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.681289620535287</v>
+        <v>1.689364440046238</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.020841445823794</v>
+        <v>1.022421516946281</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.30271680828321</v>
+        <v>1.304459489051823</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.159100323010007</v>
+        <v>1.165125429598117</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.470193598954529</v>
+        <v>1.470287440435235</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6721312388867319</v>
+        <v>0.6696087535094764</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9842004630541582</v>
+        <v>0.9866379131997767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.874558371281389</v>
+        <v>0.8712878190286028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.169920077468812</v>
+        <v>1.171072024035095</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.110103582089969</v>
+        <v>1.112897836573985</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.615049916472126</v>
+        <v>1.610042725918697</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.361281753650625</v>
+        <v>1.359594398703536</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.740982238778754</v>
+        <v>1.743610156786885</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9268430185184916</v>
+        <v>0.9278169914489847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.342072491268845</v>
+        <v>1.344896067772894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.148947540607071</v>
+        <v>1.149417337184559</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.499857758424937</v>
+        <v>1.496149788184119</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8208675076666205</v>
+        <v>0.8206163663267461</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.227855474684433</v>
+        <v>1.22023557910779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.029633856006379</v>
+        <v>1.030206628169047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.384004841021245</v>
+        <v>1.380843366583294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.295469510646136</v>
+        <v>1.304093617209169</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.85622155642361</v>
+        <v>1.842979872117434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.572916827520978</v>
+        <v>1.568394687408314</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.967707833523828</v>
+        <v>1.979847296166655</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.046773153008401</v>
+        <v>1.049103479192373</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.512301902493511</v>
+        <v>1.512151247567149</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.283782525682897</v>
+        <v>1.28712338538968</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.659514343374866</v>
+        <v>1.65514910435586</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6802186333896015</v>
+        <v>0.6790810843551452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9613855059404943</v>
+        <v>0.9632605335231373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8747643028366959</v>
+        <v>0.8739576611198837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.168440677085846</v>
+        <v>1.164450755438751</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.088526695096107</v>
+        <v>1.094416956265885</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.567716903606793</v>
+        <v>1.564093725970983</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.339288879610574</v>
+        <v>1.339297970881982</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.678781593325099</v>
+        <v>1.680303485045988</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9005833158051764</v>
+        <v>0.9001271337604488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.285458762476678</v>
+        <v>1.285090277233669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.121790671640509</v>
+        <v>1.127186657079114</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.449373407671059</v>
+        <v>1.442425329104705</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7594834561388329</v>
+        <v>0.7581598268014363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.073778055211194</v>
+        <v>1.072333760844034</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9645317900660269</v>
+        <v>0.9596800545061966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.281092943595263</v>
+        <v>1.282133335534704</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.185510617866816</v>
+        <v>1.19234308509979</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.689042535172228</v>
+        <v>1.695177966356193</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.45506060446568</v>
+        <v>1.453565773024505</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.795795122018358</v>
+        <v>1.799327488979562</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9659232294113056</v>
+        <v>0.9640773568191172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.366833088633991</v>
+        <v>1.364548777390188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.196624232916998</v>
+        <v>1.199876313312217</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.527312356851608</v>
+        <v>1.527763254733489</v>
       </c>
     </row>
     <row r="19">
